--- a/Assets/Excel/IChingTheory.xlsx
+++ b/Assets/Excel/IChingTheory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>上九：亢龙有悔。</t>
   </si>
   <si>
-    <t>卦辞：元亨利贞。</t>
+    <t>卦辞：元、亨、利、贞。</t>
   </si>
   <si>
     <t>象曰：天行健，君子以自强不息。</t>
@@ -313,7 +313,7 @@
     <t>上六：比之无首，凶。</t>
   </si>
   <si>
-    <t>卦辞：比：吉。原筮，元永贞，无咎。不宁方来。后夫凶。</t>
+    <t>卦辞：吉。原筮，元永贞，无咎。不宁方来。后夫凶。</t>
   </si>
   <si>
     <t>象曰：地上有水，比。先王以建万国，亲诸侯。</t>
@@ -385,22 +385,22 @@
     <t>泰</t>
   </si>
   <si>
-    <t>初九，拔茅茹，以其汇，征吉。</t>
-  </si>
-  <si>
-    <t>九二，包荒，用冯河，不遐遗；朋亡，得尚于中行。</t>
-  </si>
-  <si>
-    <t>九三，无平不陂，无往不复；艰贞无咎，勿恤其孚，于食有福。</t>
-  </si>
-  <si>
-    <t>六四，翩翩，不富以其邻，不戒以孚。</t>
-  </si>
-  <si>
-    <t>六五，帝乙归妹，以祉元吉。</t>
-  </si>
-  <si>
-    <t>上六，“城复于隍”；勿用师，自邑告命，贞吝。</t>
+    <t>初九：拔茅茹，以其汇，征吉。</t>
+  </si>
+  <si>
+    <t>九二：包荒，用冯河，不遐遗；朋亡，得尚于中行。</t>
+  </si>
+  <si>
+    <t>九三：无平不陂，无往不复；艰贞无咎，勿恤其孚，于食有福。</t>
+  </si>
+  <si>
+    <t>六四：翩翩，不富以其邻，不戒以孚。</t>
+  </si>
+  <si>
+    <t>六五：帝乙归妹，以祉元吉。</t>
+  </si>
+  <si>
+    <t>上六：“城复于隍”；勿用师，自邑告命，贞吝。</t>
   </si>
   <si>
     <t>卦辞：小往大来，吉，亨。</t>
@@ -445,22 +445,22 @@
     <t>同人</t>
   </si>
   <si>
-    <t>初九，同人于门，无咎。</t>
-  </si>
-  <si>
-    <t>六二，同人于宗，吝。</t>
-  </si>
-  <si>
-    <t>九三，伏戎于莽，升其高陵，三岁不兴。</t>
-  </si>
-  <si>
-    <t>九四，乘其墉，弗克攻，吉。</t>
-  </si>
-  <si>
-    <t>九五，同人，先号啕，而后笑，大师克相遇。</t>
-  </si>
-  <si>
-    <t>上九，同人于郊，无悔。</t>
+    <t>初九：同人于门，无咎。</t>
+  </si>
+  <si>
+    <t>六二：同人于宗，吝。</t>
+  </si>
+  <si>
+    <t>九三：伏戎于莽，升其高陵，三岁不兴。</t>
+  </si>
+  <si>
+    <t>九四：乘其墉，弗克攻，吉。</t>
+  </si>
+  <si>
+    <t>九五：同人，先号啕，而后笑，大师克相遇。</t>
+  </si>
+  <si>
+    <t>上九：同人于郊，无悔。</t>
   </si>
   <si>
     <t>卦辞：同人于野，亨。</t>
@@ -506,22 +506,22 @@
     <t>谦</t>
   </si>
   <si>
-    <t>初六，谦谦君子，用涉大川，吉。</t>
-  </si>
-  <si>
-    <t>六二，鸣谦，贞吉。</t>
-  </si>
-  <si>
-    <t>九三，劳谦，君子有终，吉。</t>
-  </si>
-  <si>
-    <t>六四，无不利，撝谦。</t>
-  </si>
-  <si>
-    <t>六五，不富，以其邻，利用侵伐，无不利。</t>
-  </si>
-  <si>
-    <t>上六，鸣谦，利用行师，征邑国。</t>
+    <t>初六：谦谦君子，用涉大川，吉。</t>
+  </si>
+  <si>
+    <t>六二：鸣谦，贞吉。</t>
+  </si>
+  <si>
+    <t>九三：劳谦，君子有终，吉。</t>
+  </si>
+  <si>
+    <t>六四：无不利，撝谦。</t>
+  </si>
+  <si>
+    <t>六五：不富，以其邻，利用侵伐，无不利。</t>
+  </si>
+  <si>
+    <t>上六：鸣谦，利用行师，征邑国。</t>
   </si>
   <si>
     <t>卦辞：亨，君子有终。</t>
@@ -1106,22 +1106,22 @@
     <t>晋</t>
   </si>
   <si>
-    <t>初六，晋如，摧如，贞吉；罔孚，裕无咎。</t>
-  </si>
-  <si>
-    <t>六二，晋如愁如，贞吉；受兹介福，于其王母。</t>
+    <t>初六：晋如，摧如，贞吉；罔孚，裕无咎。</t>
+  </si>
+  <si>
+    <t>六二：晋如愁如，贞吉；受兹介福，于其王母。</t>
   </si>
   <si>
     <t>六三，众允，悔亡。</t>
   </si>
   <si>
-    <t>九四，晋如鼫鼠，贞厉。</t>
-  </si>
-  <si>
-    <t>六五，悔亡，失得勿恤。往，吉。无不利。</t>
-  </si>
-  <si>
-    <t>上九，晋其角，维用伐邑，厉吉，无咎，贞吝。</t>
+    <t>九四：晋如鼫鼠，贞厉。</t>
+  </si>
+  <si>
+    <t>六五：悔亡，失得勿恤。往，吉。无不利。</t>
+  </si>
+  <si>
+    <t>上九：晋其角，维用伐邑，厉吉，无咎，贞吝。</t>
   </si>
   <si>
     <t>卦辞：康侯用锡马蕃庶，昼日三接。</t>
@@ -1376,22 +1376,22 @@
     <t>姤</t>
   </si>
   <si>
-    <t>初六，系于金柅，贞吉。有攸往，见凶，羸豕孚蹢躅。</t>
-  </si>
-  <si>
-    <t>九二，包有鱼，无咎，不利宾。</t>
-  </si>
-  <si>
-    <t>九三，臀无肤，其行次且，厉，无大咎。</t>
-  </si>
-  <si>
-    <t>九四，包无鱼，起凶。</t>
-  </si>
-  <si>
-    <t>九五，以杞包瓜，含章，有陨自天。</t>
-  </si>
-  <si>
-    <t>上九，姤其角，吝，无咎。</t>
+    <t>初六：系于金柅，贞吉。有攸往，见凶，羸豕孚蹢躅。</t>
+  </si>
+  <si>
+    <t>九二：包有鱼，无咎，不利宾。</t>
+  </si>
+  <si>
+    <t>九三：臀无肤，其行次且，厉，无大咎。</t>
+  </si>
+  <si>
+    <t>九四：包无鱼，起凶。</t>
+  </si>
+  <si>
+    <t>九五：以杞包瓜，含章，有陨自天。</t>
+  </si>
+  <si>
+    <t>上九：姤其角，吝，无咎。</t>
   </si>
   <si>
     <t>卦辞：女壮，勿用取女。</t>
@@ -1496,22 +1496,22 @@
     <t>井</t>
   </si>
   <si>
-    <t>初六，井泥不食；旧井无禽。</t>
-  </si>
-  <si>
-    <t>九二，井谷射鲋；瓮敝漏。</t>
-  </si>
-  <si>
-    <t>九三，井渫不食，为我心测；可用汲，王明并受其福。</t>
-  </si>
-  <si>
-    <t>六四，井甃，无咎。</t>
-  </si>
-  <si>
-    <t>九五，井洌，寒泉食。</t>
-  </si>
-  <si>
-    <t>上六，井收，勿幕；有孚，元吉。</t>
+    <t>初六：井泥不食；旧井无禽。</t>
+  </si>
+  <si>
+    <t>九二：井谷射鲋；瓮敝漏。</t>
+  </si>
+  <si>
+    <t>九三：井渫不食，为我心测；可用汲，王明并受其福。</t>
+  </si>
+  <si>
+    <t>六四：井甃，无咎。</t>
+  </si>
+  <si>
+    <t>九五：井洌，寒泉食。</t>
+  </si>
+  <si>
+    <t>上六：井收，勿幕；有孚，元吉。</t>
   </si>
   <si>
     <t>卦辞：改邑不改井，无丧无得，往来井井；汔至亦未繘井，羸其瓶，凶。</t>
@@ -1526,22 +1526,22 @@
     <t>革</t>
   </si>
   <si>
-    <t>初九，巩用黄牛之革。</t>
-  </si>
-  <si>
-    <t>六二，己日，乃革之；征吉；无咎。</t>
-  </si>
-  <si>
-    <t>九三，征凶，贞厉；革言三就，有孚。　</t>
-  </si>
-  <si>
-    <t>九四，悔亡，有孚改命，吉。</t>
-  </si>
-  <si>
-    <t>九五，大人虎变，未占有孚。</t>
-  </si>
-  <si>
-    <t>上六，君子豹变，小人革面，征凶。居贞，吉。</t>
+    <t>初九：巩用黄牛之革。</t>
+  </si>
+  <si>
+    <t>六二：己日，乃革之；征吉；无咎。</t>
+  </si>
+  <si>
+    <t>九三：征凶，贞厉；革言三就，有孚。　</t>
+  </si>
+  <si>
+    <t>九四：悔亡，有孚改命，吉。</t>
+  </si>
+  <si>
+    <t>九五：大人虎变，未占有孚。</t>
+  </si>
+  <si>
+    <t>上六：君子豹变，小人革面，征凶。居贞，吉。</t>
   </si>
   <si>
     <t>卦辞：巳日乃复，元、亨、利、贞，悔亡。</t>
@@ -2008,8 +2008,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2022,8 +2022,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2038,22 +2115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2066,47 +2128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2120,6 +2143,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2128,39 +2158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2175,7 +2175,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,13 +2313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,13 +2337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2229,133 +2349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,15 +2366,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2389,6 +2380,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2408,6 +2408,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2423,7 +2438,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2451,21 +2466,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2474,10 +2474,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2486,133 +2486,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2973,8 +2973,8 @@
   <sheetPr/>
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
